--- a/biology/Médecine/Groupe_hospitalo-universitaire_de_l'AP-HP/Groupe_hospitalo-universitaire_de_l'AP-HP.xlsx
+++ b/biology/Médecine/Groupe_hospitalo-universitaire_de_l'AP-HP/Groupe_hospitalo-universitaire_de_l'AP-HP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Groupe_hospitalo-universitaire_de_l%27AP-HP</t>
+          <t>Groupe_hospitalo-universitaire_de_l'AP-HP</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Groupes hospitalo-universitaires de l'AP-HP (GHU) (anciennement Groupements hospitaliers universitaires) sont des regroupements d'établissements hospitalo-universitaires de l'Assistance publique - Hôpitaux de Paris (AP-HP), mis en place par la direction en 2003 dans le cadre de la « nouvelle gouvernance ».
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Groupe_hospitalo-universitaire_de_l%27AP-HP</t>
+          <t>Groupe_hospitalo-universitaire_de_l'AP-HP</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Groupe_hospitalo-universitaire_de_l%27AP-HP</t>
+          <t>Groupe_hospitalo-universitaire_de_l'AP-HP</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,44 +553,219 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>GHU Nord Université Paris-Cité
-Hôpital Louis-Mourier - 92700 Colombes
+          <t>GHU Nord Université Paris-Cité</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hôpital Louis-Mourier - 92700 Colombes
 Hôpital Beaujon - 92110 Clichy
 Hôpital Bichat-Claude-Bernard - 75018 Paris
 Hôpital Bretonneau - 75018 Paris
 Hôpital Lariboisière - 75010 Paris
 Hôpital Fernand-Widal - 75010 Paris
 Hôpital Saint-Louis - 75010 Paris
-Hôpital Robert-Debré - 75019 Paris
-GHU Hôpitaux universitaires Paris Seine-Saint-Denis
-Hôpital Avicenne - 93000 Bobigny
+Hôpital Robert-Debré - 75019 Paris</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Groupe_hospitalo-universitaire_de_l'AP-HP</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groupe_hospitalo-universitaire_de_l%27AP-HP</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Composition des GHU</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>GHU Hôpitaux universitaires Paris Seine-Saint-Denis</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Hôpital Avicenne - 93000 Bobigny
 Hôpital René-Muret-Bigottini - 93270 Sevran
-Hôpital Jean-Verdier - 93140 Bondy
-GHU Sorbonne Université
-Hôpital Tenon - 75020 Paris
+Hôpital Jean-Verdier - 93140 Bondy</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Groupe_hospitalo-universitaire_de_l'AP-HP</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groupe_hospitalo-universitaire_de_l%27AP-HP</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Composition des GHU</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>GHU Sorbonne Université</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Hôpital Tenon - 75020 Paris
 Hôpital Armand-Trousseau - 75012 Paris
 Hôpital Rothschild - 75012 Paris
 Hôpital Saint-Antoine - 75012 Paris
 Hôpital de la Salpêtrière (GH de la Pitié-Salpêtrière - Charles-Foix) - 75013 Paris
 Hôpital Charles-Foix (GH de la Pitié-Salpêtrière - Charles-Foix) - 94200 Ivry-sur-Seine
-Hôpital de La Roche-Guyon - 95780 La Roche-Guyon
-GHU Hôpitaux universitaires Henri-Mondor
-Centre hospitalier universitaire Henri-Mondor - 94000 Créteil
+Hôpital de La Roche-Guyon - 95780 La Roche-Guyon</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Groupe_hospitalo-universitaire_de_l'AP-HP</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groupe_hospitalo-universitaire_de_l%27AP-HP</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Composition des GHU</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>GHU Hôpitaux universitaires Henri-Mondor</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Centre hospitalier universitaire Henri-Mondor - 94000 Créteil
 Hôpital Albert-Chenevier - 94000 Créteil
 Hôpital Émile-Roux- 94450 Limeil-Brévannes
 Hôpital Dupuytren - 91210 Draveil
-Hôpital Georges-Clemenceau - 91750 Champcueil
-GHU Centre Université Paris-Cité
-Hôtel-Dieu de Paris - 75004 Paris
+Hôpital Georges-Clemenceau - 91750 Champcueil</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Groupe_hospitalo-universitaire_de_l'AP-HP</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groupe_hospitalo-universitaire_de_l%27AP-HP</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Composition des GHU</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>GHU Centre Université Paris-Cité</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Hôtel-Dieu de Paris - 75004 Paris
 Hôpital de la Collégiale - 75005 Paris
 Hôpital Broca - 75013 Paris
 Hôpital Cochin - 75014 Paris
 Hôpital Necker-Enfants malades - 75015 Paris
 Hôpital Vaugirard - Gabriel-Pallez - 75015 Paris
 Hôpital européen Georges-Pompidou (HEGP) - 75015 Paris
-Hôpital Corentin-Celton - 92130 Issy-les-Moulineaux
-GHU Université Paris-Saclay
-Hôpital Sainte-Périne - Rossini - Chardon-Lagache - 75016 Paris
+Hôpital Corentin-Celton - 92130 Issy-les-Moulineaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Groupe_hospitalo-universitaire_de_l'AP-HP</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groupe_hospitalo-universitaire_de_l%27AP-HP</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Composition des GHU</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>GHU Université Paris-Saclay</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Hôpital Sainte-Périne - Rossini - Chardon-Lagache - 75016 Paris
 Hôpital Ambroise-Paré- 92100 Boulogne-Billancourt
 Hôpital Raymond-Poincaré - 92380 Garches
 Hôpital Antoine-Béclère - 92140 Clamart
@@ -586,31 +775,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Groupe_hospitalo-universitaire_de_l%27AP-HP</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Groupe_hospitalo-universitaire_de_l%27AP-HP</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Groupe_hospitalo-universitaire_de_l'AP-HP</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groupe_hospitalo-universitaire_de_l%27AP-HP</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Hôpitaux non rattachés à un GHU</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Hôpital Villemin-Paul-Doumer - 60140 Liancourt
 Hôpital Adélaïde-Hautval (anciennement hôpital Charles-Richet) - 95400 Villiers-le-Bel
@@ -619,31 +810,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Groupe_hospitalo-universitaire_de_l%27AP-HP</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Groupe_hospitalo-universitaire_de_l%27AP-HP</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Groupe_hospitalo-universitaire_de_l'AP-HP</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Groupe_hospitalo-universitaire_de_l%27AP-HP</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Anciens hôpitaux</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Hôpital Broussais (transféré à l'hôpital européen Georges-Pompidou) - 75014 Paris
 Hôpital Saint-Vincent-de-Paul - 75014 Paris
